--- a/原始表.xlsx
+++ b/原始表.xlsx
@@ -1,48 +1,246 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="16095" windowHeight="25020"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
-    <t>表格 1</t>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>长跑</t>
+  </si>
+  <si>
+    <t>半场来回运球上篮</t>
+  </si>
+  <si>
+    <t>林达成</t>
+  </si>
+  <si>
+    <t>198808114312</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>3"10</t>
+  </si>
+  <si>
+    <t>王尼玛</t>
+  </si>
+  <si>
+    <t>1990237483973</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>4"10</t>
+  </si>
+  <si>
+    <t>草泥马</t>
+  </si>
+  <si>
+    <t>7782567282622</t>
+  </si>
+  <si>
+    <t>4"20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -51,18 +249,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -72,174 +450,416 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00BDC0BF"/>
+      <rgbColor rgb="00A5A5A5"/>
+      <rgbColor rgb="003F3F3F"/>
+      <rgbColor rgb="00DBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -365,7 +985,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -374,7 +994,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -383,7 +1003,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -447,8 +1067,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -456,13 +1076,12 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -482,8 +1101,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -491,7 +1109,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -518,8 +1136,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -544,8 +1161,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -570,8 +1186,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -596,8 +1211,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -622,8 +1236,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -648,8 +1261,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -674,8 +1286,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -700,8 +1311,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -726,8 +1336,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -740,9 +1349,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -756,8 +1371,6 @@
           <a:prstDash val="solid"/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -777,8 +1390,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -803,8 +1415,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -829,8 +1440,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -855,8 +1465,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -881,8 +1490,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -907,8 +1515,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -933,8 +1540,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -959,8 +1565,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -985,8 +1590,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1011,8 +1615,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1025,9 +1628,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1038,8 +1647,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1059,8 +1666,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1089,8 +1695,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1115,8 +1720,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1141,8 +1745,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1167,8 +1770,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1193,8 +1795,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1219,8 +1820,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,8 +1845,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1271,8 +1870,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,8 +1895,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1311,254 +1908,258 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3333333333333" style="1"/>
+    <col min="2" max="7" width="16.352380952381" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.3333333333333" style="2"/>
+    <col min="9" max="257" width="16.352380952381" style="2" customWidth="1"/>
+    <col min="258" max="16384" width="16.3333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="1" customFormat="1" ht="20.55" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+    <row r="2" ht="20.55" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+    <row r="3" ht="20.35" customHeight="1" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+    <row r="4" ht="20.35" customHeight="1" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+    <row r="5" ht="20.35" customHeight="1" spans="3:7">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
     </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+    <row r="6" ht="20.35" customHeight="1" spans="3:7">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
     </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+    <row r="7" ht="20.35" customHeight="1" spans="3:7">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
     </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+    <row r="8" ht="20.35" customHeight="1" spans="3:7">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
     </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+    <row r="9" ht="20.35" customHeight="1" spans="3:7">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
     </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+    <row r="10" ht="20.35" customHeight="1" spans="3:7">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
     </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+    <row r="11" ht="20.35" customHeight="1" spans="2:7">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+    <row r="12" ht="20.35" customHeight="1" spans="2:7">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+    <row r="13" ht="20.35" customHeight="1" spans="2:7">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+    <row r="14" ht="20.35" customHeight="1" spans="2:7">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+    <row r="15" ht="20.35" customHeight="1" spans="2:7">
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+    <row r="16" ht="20.35" customHeight="1" spans="2:7">
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+    <row r="17" ht="20.35" customHeight="1" spans="2:7">
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+    <row r="18" ht="20.35" customHeight="1" spans="2:7">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+    <row r="19" ht="20.35" customHeight="1" spans="2:7">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+    <row r="20" ht="20.35" customHeight="1" spans="2:7">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+    <row r="21" ht="20.35" customHeight="1" spans="2:7">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+    <row r="22" ht="20.35" customHeight="1" spans="2:7">
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/原始表.xlsx
+++ b/原始表.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="16095" windowHeight="25020"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>姓名</t>
   </si>
@@ -43,6 +41,9 @@
     <t>3"10</t>
   </si>
   <si>
+    <t>20’</t>
+  </si>
+  <si>
     <t>王尼玛</t>
   </si>
   <si>
@@ -55,6 +56,9 @@
     <t>4"10</t>
   </si>
   <si>
+    <t>30’</t>
+  </si>
+  <si>
     <t>草泥马</t>
   </si>
   <si>
@@ -62,185 +66,42 @@
   </si>
   <si>
     <t>4"20</t>
+  </si>
+  <si>
+    <t>40’</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,198 +110,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -450,416 +125,66 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00BDC0BF"/>
-      <rgbColor rgb="00A5A5A5"/>
-      <rgbColor rgb="003F3F3F"/>
-      <rgbColor rgb="00DBDBDB"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -869,10 +194,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="404040"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BFBFBF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -985,7 +310,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -994,7 +319,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1003,7 +328,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1066,55 +391,52 @@
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:srcRect/>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="31034"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -1136,7 +458,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1161,7 +484,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1186,7 +510,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1211,7 +536,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1236,7 +562,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1261,7 +588,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1286,7 +614,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1311,7 +640,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1336,7 +666,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1349,28 +680,30 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="6350" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1390,7 +723,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1415,7 +749,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1440,7 +775,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1465,7 +801,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1490,7 +827,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1515,7 +853,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1540,7 +879,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1565,7 +905,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1590,7 +931,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1615,7 +957,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1628,15 +971,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1647,26 +984,29 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1695,7 +1035,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1720,7 +1061,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1745,7 +1087,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1770,7 +1113,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1795,7 +1139,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1820,7 +1165,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1845,7 +1191,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1870,7 +1217,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1895,7 +1243,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1908,160 +1257,169 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3333333333333" style="1"/>
-    <col min="2" max="7" width="16.352380952381" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3333333333333" style="2"/>
-    <col min="9" max="257" width="16.352380952381" style="2" customWidth="1"/>
-    <col min="258" max="16384" width="16.3333333333333" style="2"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.55" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="20.55" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="20.55" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="20.55" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" t="s" s="2">
+        <v>9</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="20.35" customHeight="1" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" ht="20.35" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="D3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>14</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" ht="20.35" customHeight="1" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="4" ht="20.35" customHeight="1">
+      <c r="A4" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="D4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>18</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" ht="20.35" customHeight="1" spans="3:7">
+    <row r="5" ht="20.35" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1" spans="3:7">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" ht="20.35" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1" spans="3:7">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" ht="20.35" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1" spans="3:7">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1" spans="3:7">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1" spans="3:7">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" ht="20.35" customHeight="1" spans="2:7">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="20.35" customHeight="1">
+      <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2069,7 +1427,8 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" ht="20.35" customHeight="1" spans="2:7">
+    <row r="12" ht="20.35" customHeight="1">
+      <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2077,7 +1436,8 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" ht="20.35" customHeight="1" spans="2:7">
+    <row r="13" ht="20.35" customHeight="1">
+      <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2085,7 +1445,8 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" ht="20.35" customHeight="1" spans="2:7">
+    <row r="14" ht="20.35" customHeight="1">
+      <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2093,7 +1454,8 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" ht="20.35" customHeight="1" spans="2:7">
+    <row r="15" ht="20.35" customHeight="1">
+      <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2101,7 +1463,8 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" ht="20.35" customHeight="1" spans="2:7">
+    <row r="16" ht="20.35" customHeight="1">
+      <c r="A16" s="4"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2109,7 +1472,8 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" ht="20.35" customHeight="1" spans="2:7">
+    <row r="17" ht="20.35" customHeight="1">
+      <c r="A17" s="4"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2117,7 +1481,8 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" ht="20.35" customHeight="1" spans="2:7">
+    <row r="18" ht="20.35" customHeight="1">
+      <c r="A18" s="4"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2125,7 +1490,8 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" ht="20.35" customHeight="1" spans="2:7">
+    <row r="19" ht="20.35" customHeight="1">
+      <c r="A19" s="4"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2133,7 +1499,8 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" ht="20.35" customHeight="1" spans="2:7">
+    <row r="20" ht="20.35" customHeight="1">
+      <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2141,7 +1508,8 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" ht="20.35" customHeight="1" spans="2:7">
+    <row r="21" ht="20.35" customHeight="1">
+      <c r="A21" s="4"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2149,7 +1517,8 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" ht="20.35" customHeight="1" spans="2:7">
+    <row r="22" ht="20.35" customHeight="1">
+      <c r="A22" s="4"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2158,8 +1527,8 @@
       <c r="G22" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/原始表.xlsx
+++ b/原始表.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="27840" windowHeight="13335" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表 2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>姓名</t>
   </si>
@@ -41,7 +44,7 @@
     <t>3"10</t>
   </si>
   <si>
-    <t>20’</t>
+    <t>19'</t>
   </si>
   <si>
     <t>王尼玛</t>
@@ -53,10 +56,10 @@
     <t>女</t>
   </si>
   <si>
-    <t>4"10</t>
-  </si>
-  <si>
-    <t>30’</t>
+    <t>4"07</t>
+  </si>
+  <si>
+    <t>30'</t>
   </si>
   <si>
     <t>草泥马</t>
@@ -68,40 +71,214 @@
     <t>4"20</t>
   </si>
   <si>
-    <t>40’</t>
+    <t>45'</t>
+  </si>
+  <si>
+    <t>林智文</t>
+  </si>
+  <si>
+    <t>王你妹</t>
+  </si>
+  <si>
+    <t>3"27</t>
+  </si>
+  <si>
+    <t>37'</t>
+  </si>
+  <si>
+    <t>草大爷</t>
+  </si>
+  <si>
+    <t>4"30</t>
+  </si>
+  <si>
+    <t>43'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,12 +287,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -125,66 +482,441 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00BDC0BF"/>
+      <rgbColor rgb="00A5A5A5"/>
+      <rgbColor rgb="003F3F3F"/>
+      <rgbColor rgb="00DBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -194,10 +926,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="404040"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="535353"/>
+        <a:srgbClr val="BFBFBF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -310,7 +1042,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -319,7 +1051,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -328,7 +1060,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -391,52 +1123,55 @@
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="31034"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -458,8 +1193,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -484,8 +1218,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -510,8 +1243,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -536,8 +1268,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -562,8 +1293,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -588,8 +1318,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -614,8 +1343,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -640,8 +1368,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -666,8 +1393,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -680,30 +1406,28 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="6350" cap="flat">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="50000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -723,8 +1447,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -749,8 +1472,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -775,8 +1497,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -801,8 +1522,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -827,8 +1547,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -853,8 +1572,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -879,8 +1597,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -905,8 +1622,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -931,8 +1647,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -957,8 +1672,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -971,9 +1685,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -984,29 +1704,26 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1035,8 +1752,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1061,8 +1777,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1087,8 +1802,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1113,8 +1827,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1139,8 +1852,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1165,8 +1877,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1191,8 +1902,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1217,8 +1927,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1243,8 +1952,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1257,280 +1965,204 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="18" customHeight="1" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3333333333333" style="3"/>
+    <col min="2" max="5" width="16.352380952381" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="16.3333333333333" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="3" customFormat="1" ht="20.55" customHeight="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" ht="20.55" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
     </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="10.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" ht="49.5" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="49.5" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="49.5" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="49.5" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>